--- a/Aus23_ITS_Metabarcoding/DSE_List.xlsx
+++ b/Aus23_ITS_Metabarcoding/DSE_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/jan58_duke_edu/Documents/Documents/Github/Aus-Invasions-2023-Course/Aus23_ITS_Metabarcoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{83034260-9E6A-42BC-8572-8D6CCC45086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50350E8-FCDF-4AC6-A5E2-2CC62CE155A7}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{83034260-9E6A-42BC-8572-8D6CCC45086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712D662F-4A56-4623-8A8B-C0D4DE215F19}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{32A8F8BA-3F7A-483F-BD4C-FC3C2EC53D96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{32A8F8BA-3F7A-483F-BD4C-FC3C2EC53D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,17 +582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55662999-177B-4872-BA9B-052BEB3203EC}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -600,12 +600,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -613,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -629,7 +629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -685,7 +685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -693,7 +693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -701,7 +701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -717,7 +717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -725,7 +725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -733,7 +733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -741,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -757,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -765,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -773,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -789,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -797,7 +797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -805,7 +805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -829,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -837,7 +837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -845,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -877,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -885,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -909,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -917,7 +917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -925,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -933,7 +933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -949,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -965,7 +965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -973,42 +973,42 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
